--- a/biology/Médecine/M._R._Gurusamy_Mudaliar/M._R._Gurusamy_Mudaliar.xlsx
+++ b/biology/Médecine/M._R._Gurusamy_Mudaliar/M._R._Gurusamy_Mudaliar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr M. R. Gurusamy Mudaliar (en tamoul : எம். ஆர். குருசாமி முதலியார்), né en 1880 à Nelamangala (en) (Mysore) et mort en 1958 à Kilpauk (en) (Madras), est un médecin indien actif à Madras dans la première moitié du XXe siècle.
 Il est l'oncle du réalisateur tamoul R. Nataraja Mudaliar.
@@ -512,10 +524,12 @@
           <t>Jeunesse et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mudaliar naît en 1880 à Nelamangala, alors dans la municipalité de Mysore (aujourd'hui un quartier de Bangalore). Son père, Ramaswamy Mudaliar, est un riche entrepreneur en bâtiment.
-Après avoir terminé sa scolarité à Mysore, il étudie au Central College de Bangalore (en), où il obtient une licence. C'est dans cet établissement qu'il devient l'ami de Rajaji[1],[2].
+Après avoir terminé sa scolarité à Mysore, il étudie au Central College de Bangalore (en), où il obtient une licence. C'est dans cet établissement qu'il devient l'ami de Rajaji,.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,11 +586,13 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le pont (en) qui relie Kilpauk (en) et Chettupattu (en) porte son nom, tout comme la route qui l'emprunte ;
-Une statue de Guruswamy est installée sur le campus de Madras Medical College (en)[3] ;
-Les services postaux indiens émettent une série de timbres en hommage à Guruswamy[4] ;
+Une statue de Guruswamy est installée sur le campus de Madras Medical College (en) ;
+Les services postaux indiens émettent une série de timbres en hommage à Guruswamy ;
 Dr. Guruswamy Mudaliar TTV Hr. Sec School, située à Chennai 1, est nommée d'après lui.</t>
         </is>
       </c>
